--- a/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/ERROR_Q_Make_THE_SIGNAL.xlsx
+++ b/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/ERROR_Q_Make_THE_SIGNAL.xlsx
@@ -9529,11 +9529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273796200"/>
-        <c:axId val="273801296"/>
+        <c:axId val="278870032"/>
+        <c:axId val="278864544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273796200"/>
+        <c:axId val="278870032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9658,12 +9658,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273801296"/>
+        <c:crossAx val="278864544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273801296"/>
+        <c:axId val="278864544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9788,7 +9788,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273796200"/>
+        <c:crossAx val="278870032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10069,11 +10069,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273793456"/>
-        <c:axId val="273794632"/>
+        <c:axId val="278866112"/>
+        <c:axId val="278868464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273793456"/>
+        <c:axId val="278866112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10116,7 +10116,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273794632"/>
+        <c:crossAx val="278868464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10124,7 +10124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273794632"/>
+        <c:axId val="278868464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10175,9 +10175,9169 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273793456"/>
+        <c:crossAx val="278866112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>等間隔に赤、黄、青と並べる</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72360679800000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92360679800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.488634952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2064495099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3466737649999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9423668709999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.247603287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2940187559999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7577728180000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7182202430000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4127002540000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1680003239999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4425920140000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.760211274</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.120559870000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.47703246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.20998269</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.239980488</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0849118579999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0064495099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82426406900000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93005630800000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.722677276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.336574631</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.61820425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1472259940000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.093566483</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2934976690000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.717894169999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.301608379999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1076932750000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7113810410000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.08224611</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.41486999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.228538329</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.48584078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.679958710000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7867206090000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2950844619999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74142135600000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98284271199999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9142870460000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.00400696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6735389540000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3543203770000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.228621135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3886708350000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2937741140000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.39242041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0772699029999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2124502509999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9599138489999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2427565619999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102.7237789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3667137459999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3071067810000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8930106600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4491900790000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6300563079999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.429784057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4773387170000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2102916430000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1456427960000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8997162269999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7358381680000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.158792480000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7890246429999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3656774440000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.670548143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.0248491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.510778653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3319021610000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>121.8558384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82360679800000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64142135600000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0084073519999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.722677276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8640986319999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2255832820000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9196962000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2375869590000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.324323559999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6950844620000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2407800779999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7964036750000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8152982449999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8643719909999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3035446350000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9604762619999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.668848503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.389442089999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1266554470000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1414213559999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64142135600000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7113122279999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.224264069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0892922230000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8300563080000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4905947930000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7245523120000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4856149699999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.369127046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5611175560000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.230806769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7749482309999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.374468475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2711731130000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.524414664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.37613962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.17891603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$8:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34142135600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.788634952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96502815399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7122417489999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.165028154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9113122279999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8048627180000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.656719601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3399259589999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3930106599999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0513233080000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.400520589999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9203628579999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.110463060000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.69718428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.42947629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.342735600000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3133575249999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.562538038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$9:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42360679800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52360679799999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88284271199999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6886349519999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.024264069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.530056308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4819131910000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9178305510000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9935664829999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0820550739999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9422980569999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2073950249999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0761986139999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9048787109999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.805159789999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.150626160000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.709696569999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1696916869999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.851435170000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9667764280000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$10:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62360679799999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9601814289999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5828427119999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94721359500000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7609448190000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.321090484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7122417489999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7433978400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8472295879999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.996510199999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3411160569999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.335577426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2727645769999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2787951409999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.565197349999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.632045959999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9970422819999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.47062901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$11:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88284271199999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1016027849999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.260555128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1514155009999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3498602110000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4064495100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.940491835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4837882269999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5178305509999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3694392099999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.83559073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9659736680000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.195438449999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1379988980000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.107768723</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.561068514</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.876766970000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1096261509999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$12:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68284271200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7773387169999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.547870866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.316617457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4226772759999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5595241580000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8886349520000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3877065599999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5442456199999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1218325440000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.688150416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.710654957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.64339784</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9105363089999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5895710790000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6093843689999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.750584359999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3246211250000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92360679800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82426406900000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.486138409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5678008760000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.801602785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9848191959999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9107786529999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2576491219999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2047566399999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1433791979999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.87284391</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3976363640000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.74360351</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.979790370000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2378354979999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3770023220000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8223047069999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.764298320000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66055512800000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5536631059999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.357649122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9666309390000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8694323449999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7609938610000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2571155470000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7708203929999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.688362701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8598403650000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9496485840000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.966765410000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.27807563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.53069028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9987466459999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.071205414</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.303121349999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64142135600000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54142135599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3359173600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1738768879999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3640986319999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.963441362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.247603287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.468572789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5975194500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.637163089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.894764474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0196572939999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.085029477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.771687945</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.16487278</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2946328</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.36070735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.060181429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5524624629999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82426406900000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.123606798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.299070478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3640986319999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0039331960000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.697483686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9478708659999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4812559199999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9375869590000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9362382390000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1497365149999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.277863269999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6427565620000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4680189650000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9372167999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.364889368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2193485310000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5796237199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0236067980000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96502815399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3162437589999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2325792280000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8358485470000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1399582590000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.495474153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6877054300000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2757519240000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.464338583</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2677259489999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.92465376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5414213559999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1265287960000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.217529540000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7762040350000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1423668710000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.242462809999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$18:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52360679799999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74142135600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0064495099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6365058180000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3960987889999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9122417490000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.494511997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.048260558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2068392019999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8469413450000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2866848449999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3246277150000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2714025929999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1952057939999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8234353300000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1651455949999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1659413679999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.881951900000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6096867130000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7277594239999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$19:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0313755210000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.10644951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62360679799999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6744338409999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1703003340000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.656549337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2485281370000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2976386780000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.895981683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.950931669999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.060595190000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.441011160000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9558134570000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0482430460000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.49954196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.39216154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.02712685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$20:$U$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32360679799999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66502815400000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74142135600000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44339784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30644951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0750149109999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.630713579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9349878389999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2485281370000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3147257630000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4438377029999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8977998899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1704730720000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4268827210000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4724506850000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5323898480000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8266041980000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3718413100000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0835765159999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5284659739999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$21:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54142135599999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3128990199999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5743650279999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.983788227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.312983826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2236227909999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.146284074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.214218233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1422292220000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.4708288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.068932050000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.07759743</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1288789779999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1990176579999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.293294232</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8967715710000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.725018910000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.107637409999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$22:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58284271200000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82360679800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.330713579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.324264069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7536631060000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5871997790000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2626355359999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9226772759999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3108474659999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0258668540000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.66896135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5739126520000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8232115489999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.97448661</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0171113100000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4591044819999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4156622319999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.617761738</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8264998750000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$23:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68863495200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4543203769999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6698908720000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.35412161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7167411530000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5530124399999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.93837615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0576491219999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.410948914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9877054300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0942248899999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.567914386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.395104999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8534771810000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.01392886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3392706649999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6654536090000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.638722252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$24:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92426406900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.690611436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4242640689999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0764091950000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8981409570000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0338595349999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8462840739999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1349878389999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7521887459999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9954258760000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8560292810000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0580388140000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.524264069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.820736557</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.591318879999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.42869614</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6450823020000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3258010489999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0656854250000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9113122279999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2848191959999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.465685425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.989949494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.138633390000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4186912600000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3433978400000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9546774330000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.856167621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.854338250000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.770280563</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1349190259999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.51411289999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0842793660000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.146422909999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.599721049999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6175827429999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38284271199999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0828427119999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92360679800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6019764839999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5931343550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.288634952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6026151130000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4016027850000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3303771640000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0242112259999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0957954430000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8521120770000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.857466332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7353968860000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.989820414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1096193140000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.942825375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.838325920000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.466693450000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$27:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34142135600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.10644951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0236067980000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1537319189999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82426406900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0320327919999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2919108769999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9857300760000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9538778429999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.848260558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2995512300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.464098632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.664165723</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6453296370000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.457485465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8906114359999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.410218140000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.728939840000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5514407480000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$28:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85764912199999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0365746310000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0689613499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2838896750000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0912687060000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.381271913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7368145820000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.23731825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.244717053</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.846797461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.216913344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.704366499999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1438230350000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4994601699999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7922142210000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.51691156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.35929084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$29:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6634413619999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.665028154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.123606798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.867004638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8048627180000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.805519989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7433978400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8084073520000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8798616359999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4127002540000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.763292807</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7522000090000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.228934626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.169318407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1460691139999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1035423480000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$30:$U$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32360679799999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1656854249999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4721349349999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.80644951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.831727906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.123606798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6601814290000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9262405520000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0865771419999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.825589887</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.756843296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6545310729999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8640663320000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7841619249999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7463104509999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.158107709999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.207234712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8830496139999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.809006699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$31:$U$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72360679800000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64721359499999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0414213560000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4310018219999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0576491219999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1777284080000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.745354552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1217477549999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.210654957</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6625118400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3601814289999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7895804659999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.859913890000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.83256368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.746572317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5403386960000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.313218130000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.465518100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$32:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.10644951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54142135599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.047870866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0570078440000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8128990199999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1507582300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4010303199999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.06200143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.046476583</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5016027850000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0205180189999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2420304780000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6342617549999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.685880830000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.427522340000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.196619181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.97979042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6758620820000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$33:$U$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86502815399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.690611436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4064495100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1074964719999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7974836860000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.730953529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0479929779999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.405068327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9698908719999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5861296230000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0000159929999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1334208179999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3573029139999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8881639350000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1330982170000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0850339560000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.980587619999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.764351959999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4648204109999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$34:$U$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.224264069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68284271200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.288634952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2939561739999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0161947169999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.149628812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5576491219999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.304898482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8823028819999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2048627180000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5084073519999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.764661989999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2488577280000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2483809399999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.99328105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.734667120000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3830641089999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.221597170000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4768899470000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$35:$U$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6698908720000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.952145126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94721359500000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.704862718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2650347599999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.028139459999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.163565057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0833374579999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3381774169999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6164436549999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3799724709999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.770243255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0816289690000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2804117210000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.73334199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.393218730000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2340583170000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.93516091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$36:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52360679799999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85764912199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2236067980000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6084259940000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7767828939999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0472135950000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4877054300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6073592579999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6861384089999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9571155469999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6439696559999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2505046210000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3964036750000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0586794419999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2558271310000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.38473192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.971759749999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3487384179999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6785093739999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$37:$U$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74142135600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0414213560000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52360679799999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9365058180000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.146284074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9142182330000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9831309559999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.554320377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7631691110000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7282187900000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.509238426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.592744664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9398505570000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4195001500000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.29122523</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.554937160000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9084073519999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9694198549999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.28125592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$38:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72360679800000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3128990199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.629126786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.147213595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0592519079999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6886349519999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1886349519999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5472135950000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2612423819999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5740963190000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8193485310000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.825530461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.941421356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1041677270000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7519033979999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.302335040000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.54621599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9524624629999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.878919100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$39:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.099070478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7462840740000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1414213559999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.983232404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2663251839999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.550504621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3993587220000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4396517740000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.447331036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3064495100000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.125583282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2242640690000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3313708499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.065586240000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.48986524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.946285204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.10850623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$40:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64142135600000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54142135599999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3472135949999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86502815399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.712310563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8990704780000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.017130844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.958594637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6788830730000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6512704870000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.487136380000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0210904840000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8453576819999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3518728759999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.9336889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.593926339999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.16578835</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8510253460000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5072691300000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.6647505239999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$41:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90644950999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2433978400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.607768723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5491900789999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1560623300000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6123105630000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.430569695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9453743240000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.618642983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0305148119999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6661988120000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5263366189999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.671861034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.189986390000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5836396719999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117.0004692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.753546016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4261297169999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54142135599999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66502815400000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28125592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6262405520000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3048627180000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4458130570000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5656854250000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0576491219999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4349889689999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.404986413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7882188170000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1899607699999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0621232780000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3374155659999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.313922346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1230840899999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.652464412</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.050903680000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.009860339999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$43:$U$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44142135599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.671477664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14339784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2650281539999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7728656899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75606233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0562968599999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0325792279999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6074638379999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4018910290000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8371630889999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.705772466</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6137222470000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.962932909999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0341660199999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4014366539999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6053434700000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.986119768</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7585536199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$44:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83983456400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.30644951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2576491219999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6071067809999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3536631059999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5549776479999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.008425994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.336505818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3501355940000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3093715079999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5948168819999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5338984400000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.626221911</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6119694990000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.901976484</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.22314263</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.814747990000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.705713351</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.48967056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="43"/>
+          <c:order val="43"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$45:$U$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68284271200000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68284271200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2433978400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2398345639999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9226772759999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.935848547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.646284074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.044697282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3247199080000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1194173439999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8930106599999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0965541650000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6783168659999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.017340876</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5078535290000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.203669900000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6469413449999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7376387900000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9540238759999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.53524386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$46:$U$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.165028154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54142135599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.165028154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74142135600000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4666309389999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.30644951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0378938440000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5349878389999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4222256149999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3812559200000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9171044670000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2775581470000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7758545020000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.92465376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6858148819999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.287083923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7017864490000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64.090381640000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.050261168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$47:$U$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66502815400000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84142135600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.782842712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5064495099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8625316110000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0683728920000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.812310563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2423668710000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.364879599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4310706350000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9644556889999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6394375449999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7358850600000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0505743270000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.090045484</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6848320569999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5808739639999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9705306309999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="46"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$48:$U$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84142135600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.783232404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7433978400000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0182042500000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81820425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.06251184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6183279450000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.136001520000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8377079410000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.985561610000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.620413439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.845019180000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4878979389999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.177269903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.064776567</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.85547858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1610098529999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9288876899999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="47"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$49:$U$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56502815399999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74142135600000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.695153275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.369959685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6215489879999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.05606233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2886349519999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6687088710000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5714776640000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2848002139999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2102746140000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.937338021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0050696189999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7158210189999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7994353099999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.87967166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.088486397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2829513739999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="48"/>
+          <c:order val="48"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$50:$U$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241421356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46502815400000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7848191959999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1708203930000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7877054299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5106549570000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2398345639999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2747733609999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1055199889999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6121246600000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0629465050000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.114665729999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0140499050000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4977182170000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4708203929999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3606527970000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8826108970000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.503388139999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="49"/>
+          <c:order val="49"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ERROR_Q_Make_THE_SIGNAL!$A$51:$U$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68284271200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2950844619999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.488634952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4990704779999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3886349520000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0561860250000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2040179860000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1586960849999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6848005549999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.871210085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.448418432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.210654957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.471477664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2378744039999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9388558230000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8517411840000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0842793660000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.84938906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412589960"/>
+        <c:axId val="412592496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412589960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>教示誤差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>物体長</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>/10]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412592496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412592496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>再現誤差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>物体長</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>/10]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412589960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10265,6 +19425,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11336,6 +20536,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11393,6 +21109,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11666,8 +21412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
